--- a/2023/BCA/Sem 1_result.xlsx
+++ b/2023/BCA/Sem 1_result.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Results" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Results" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -483,7 +483,7 @@
     <col width="13" customWidth="1" min="25" max="25"/>
     <col width="11" customWidth="1" min="26" max="26"/>
     <col width="12" customWidth="1" min="27" max="27"/>
-    <col width="10" customWidth="1" min="28" max="28"/>
+    <col width="11" customWidth="1" min="28" max="28"/>
     <col width="10" customWidth="1" min="29" max="29"/>
   </cols>
   <sheetData>
@@ -15207,7 +15207,11 @@
       <c r="AA109" s="3" t="n">
         <v>67.29000000000001</v>
       </c>
-      <c r="AB109" s="3" t="inlineStr"/>
+      <c r="AB109" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="AC109" s="3" t="n">
         <v>6.7</v>
       </c>
@@ -16015,7 +16019,11 @@
       <c r="AA115" s="3" t="n">
         <v>65.41</v>
       </c>
-      <c r="AB115" s="3" t="inlineStr"/>
+      <c r="AB115" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="AC115" s="3" t="n">
         <v>6.46</v>
       </c>
@@ -16148,7 +16156,11 @@
       <c r="AA116" s="2" t="n">
         <v>64.94</v>
       </c>
-      <c r="AB116" s="2" t="inlineStr"/>
+      <c r="AB116" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="AC116" s="2" t="n">
         <v>5.96</v>
       </c>
@@ -16281,7 +16293,11 @@
       <c r="AA117" s="3" t="n">
         <v>64.81999999999999</v>
       </c>
-      <c r="AB117" s="3" t="inlineStr"/>
+      <c r="AB117" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="AC117" s="3" t="n">
         <v>6.06</v>
       </c>
@@ -16684,7 +16700,11 @@
       <c r="AA120" s="2" t="n">
         <v>62.94</v>
       </c>
-      <c r="AB120" s="2" t="inlineStr"/>
+      <c r="AB120" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="AC120" s="2" t="n">
         <v>6.19</v>
       </c>
@@ -16817,7 +16837,11 @@
       <c r="AA121" s="3" t="n">
         <v>62.71</v>
       </c>
-      <c r="AB121" s="3" t="inlineStr"/>
+      <c r="AB121" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="AC121" s="3" t="n">
         <v>6.28</v>
       </c>
@@ -16950,7 +16974,11 @@
       <c r="AA122" s="2" t="n">
         <v>62.35</v>
       </c>
-      <c r="AB122" s="2" t="inlineStr"/>
+      <c r="AB122" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="AC122" s="2" t="n">
         <v>5.65</v>
       </c>
@@ -17083,7 +17111,11 @@
       <c r="AA123" s="3" t="n">
         <v>62</v>
       </c>
-      <c r="AB123" s="3" t="inlineStr"/>
+      <c r="AB123" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="AC123" s="3" t="n">
         <v>5.72</v>
       </c>
@@ -17216,7 +17248,11 @@
       <c r="AA124" s="2" t="n">
         <v>61.88</v>
       </c>
-      <c r="AB124" s="2" t="inlineStr"/>
+      <c r="AB124" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="AC124" s="2" t="n">
         <v>5.72</v>
       </c>
@@ -17349,7 +17385,11 @@
       <c r="AA125" s="3" t="n">
         <v>61.41</v>
       </c>
-      <c r="AB125" s="3" t="inlineStr"/>
+      <c r="AB125" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="AC125" s="3" t="n">
         <v>5.65</v>
       </c>
@@ -17752,7 +17792,11 @@
       <c r="AA128" s="2" t="n">
         <v>59.53</v>
       </c>
-      <c r="AB128" s="2" t="inlineStr"/>
+      <c r="AB128" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="AC128" s="2" t="n">
         <v>6.02</v>
       </c>
@@ -17885,7 +17929,11 @@
       <c r="AA129" s="3" t="n">
         <v>59.41</v>
       </c>
-      <c r="AB129" s="3" t="inlineStr"/>
+      <c r="AB129" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="AC129" s="3" t="n">
         <v>5.5</v>
       </c>
@@ -18288,7 +18336,11 @@
       <c r="AA132" s="2" t="n">
         <v>56.71</v>
       </c>
-      <c r="AB132" s="2" t="inlineStr"/>
+      <c r="AB132" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="AC132" s="2" t="n">
         <v>4.81</v>
       </c>
@@ -18421,7 +18473,11 @@
       <c r="AA133" s="3" t="n">
         <v>56.35</v>
       </c>
-      <c r="AB133" s="3" t="inlineStr"/>
+      <c r="AB133" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="AC133" s="3" t="n">
         <v>5.26</v>
       </c>
@@ -18959,7 +19015,11 @@
       <c r="AA137" s="3" t="n">
         <v>52.59</v>
       </c>
-      <c r="AB137" s="3" t="inlineStr"/>
+      <c r="AB137" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="AC137" s="3" t="n">
         <v>4.46</v>
       </c>
@@ -19227,7 +19287,11 @@
       <c r="AA139" s="3" t="n">
         <v>51.53</v>
       </c>
-      <c r="AB139" s="3" t="inlineStr"/>
+      <c r="AB139" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="AC139" s="3" t="n">
         <v>4.2</v>
       </c>
@@ -19900,7 +19964,11 @@
       <c r="AA144" s="2" t="n">
         <v>48.35</v>
       </c>
-      <c r="AB144" s="2" t="inlineStr"/>
+      <c r="AB144" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="AC144" s="2" t="n">
         <v>3.69</v>
       </c>
@@ -20573,7 +20641,11 @@
       <c r="AA149" s="3" t="n">
         <v>36</v>
       </c>
-      <c r="AB149" s="3" t="inlineStr"/>
+      <c r="AB149" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="AC149" s="3" t="n">
         <v>0</v>
       </c>
@@ -20706,7 +20778,11 @@
       <c r="AA150" s="2" t="n">
         <v>35.5</v>
       </c>
-      <c r="AB150" s="2" t="inlineStr"/>
+      <c r="AB150" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="AC150" s="2" t="n">
         <v>0</v>
       </c>
@@ -20839,7 +20915,11 @@
       <c r="AA151" s="3" t="n">
         <v>35.33</v>
       </c>
-      <c r="AB151" s="3" t="inlineStr"/>
+      <c r="AB151" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="AC151" s="3" t="n">
         <v>3.3</v>
       </c>
@@ -20972,7 +21052,11 @@
       <c r="AA152" s="2" t="n">
         <v>30.94</v>
       </c>
-      <c r="AB152" s="2" t="inlineStr"/>
+      <c r="AB152" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="AC152" s="2" t="n">
         <v>3.3</v>
       </c>
@@ -21105,7 +21189,11 @@
       <c r="AA153" s="3" t="n">
         <v>11</v>
       </c>
-      <c r="AB153" s="3" t="inlineStr"/>
+      <c r="AB153" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="AC153" s="3" t="n">
         <v>0</v>
       </c>
@@ -21238,7 +21326,11 @@
       <c r="AA154" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AB154" s="2" t="inlineStr"/>
+      <c r="AB154" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="AC154" s="2" t="n">
         <v>0</v>
       </c>
@@ -21371,7 +21463,11 @@
       <c r="AA155" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AB155" s="3" t="inlineStr"/>
+      <c r="AB155" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="AC155" s="3" t="n">
         <v>0</v>
       </c>
@@ -21504,7 +21600,11 @@
       <c r="AA156" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AB156" s="2" t="inlineStr"/>
+      <c r="AB156" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="AC156" s="2" t="n">
         <v>0</v>
       </c>
